--- a/data/trans_orig/P14B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83988D97-C31C-4522-9C81-DAA2BA2BD312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E86F8D5-6D72-4CD8-9356-847E6539B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B738647C-3B7B-4847-9E68-0D9516F9379A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1DACDB2-EAB5-4A4C-8A0B-ED3EB24FF998}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
   <si>
     <t>Población cuyo colesterol alto le limita en 2012 (Tasa respuesta: 12,17%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>33,26%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>66,74%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
   </si>
   <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
   </si>
   <si>
     <t>67,24%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -199,28 +199,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>18,38%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>39,22%</t>
+    <t>38,49%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>82,18%</t>
+    <t>81,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -229,70 +229,64 @@
     <t>89,7%</t>
   </si>
   <si>
-    <t>60,78%</t>
+    <t>61,51%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>24,19%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>75,81%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,205 +298,205 @@
     <t>24,6%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>75,4%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>85,6%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
+    <t>16,6%</t>
+  </si>
+  <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
+    <t>83,4%</t>
+  </si>
+  <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>20,29%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>79,71%</t>
   </si>
   <si>
     <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
@@ -511,211 +505,205 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>96,59%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>94,47%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAAFE32-837B-4C36-8142-9802C1A6C1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423A1EF-CEE8-4559-8A34-FB73C93EA36A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,7 +1725,7 @@
         <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -1746,13 +1734,13 @@
         <v>232812</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1755,13 @@
         <v>290719</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
@@ -1782,13 +1770,13 @@
         <v>346090</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>580</v>
@@ -1797,13 +1785,13 @@
         <v>636809</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,7 +1847,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A2D303-EF90-4A0B-87CF-9A7BF818D7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B898B03-1057-4125-A3F5-00651CA7098E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,7 +1883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2002,13 +1990,13 @@
         <v>44039</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -2017,13 +2005,13 @@
         <v>52967</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -2032,13 +2020,13 @@
         <v>97006</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2041,13 @@
         <v>135009</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -2068,13 +2056,13 @@
         <v>219181</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>335</v>
@@ -2083,13 +2071,13 @@
         <v>354190</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2145,13 @@
         <v>21574</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2172,13 +2160,13 @@
         <v>23447</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2187,13 +2175,13 @@
         <v>45020</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2196,13 @@
         <v>139850</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -2223,13 +2211,13 @@
         <v>139416</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>255</v>
@@ -2238,13 +2226,13 @@
         <v>279267</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2300,13 @@
         <v>6766</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2327,13 +2315,13 @@
         <v>996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2342,13 +2330,13 @@
         <v>7762</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2351,13 @@
         <v>39424</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -2378,10 +2366,10 @@
         <v>33331</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
@@ -2500,10 +2488,10 @@
         <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2506,13 @@
         <v>314284</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>344</v>
@@ -2533,13 +2521,13 @@
         <v>391928</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -2548,13 +2536,13 @@
         <v>706211</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2598,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158A6437-4A22-4A7A-8A65-0931248F0BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA812495-054C-448F-99F0-80DF8B0F4028}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2753,13 +2741,13 @@
         <v>8157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2768,13 +2756,13 @@
         <v>35053</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -2783,13 +2771,13 @@
         <v>43210</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2792,13 @@
         <v>135347</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>431</v>
@@ -2819,13 +2807,13 @@
         <v>236731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>623</v>
@@ -2834,13 +2822,13 @@
         <v>372079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2896,13 @@
         <v>24873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2923,13 +2911,13 @@
         <v>13364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -2938,13 +2926,13 @@
         <v>38237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2947,13 @@
         <v>245933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -2974,13 +2962,13 @@
         <v>344456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>711</v>
@@ -2989,13 +2977,13 @@
         <v>590389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3051,13 @@
         <v>4143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3078,13 +3066,13 @@
         <v>3928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3093,13 +3081,13 @@
         <v>8070</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3102,13 @@
         <v>74360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -3129,13 +3117,13 @@
         <v>81243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -3144,13 +3132,13 @@
         <v>155604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3206,13 @@
         <v>37173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3233,13 +3221,13 @@
         <v>52344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3248,13 +3236,13 @@
         <v>89517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3257,13 @@
         <v>455640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -3284,13 +3272,13 @@
         <v>662432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>1562</v>
@@ -3299,13 +3287,13 @@
         <v>1118072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3349,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E86F8D5-6D72-4CD8-9356-847E6539B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA0571F-B4AA-4B2E-95B3-6647838B0754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1DACDB2-EAB5-4A4C-8A0B-ED3EB24FF998}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{842479CD-54F5-4275-9EC0-8FCFC33C55BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población cuyo colesterol alto le limita en 2012 (Tasa respuesta: 12,17%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>33,26%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>66,74%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>67,24%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,394 +139,412 @@
     <t>16,45%</t>
   </si>
   <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2016 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>89,76%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
   </si>
   <si>
     <t>97,05%</t>
@@ -1115,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423A1EF-CEE8-4559-8A34-FB73C93EA36A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD7A56-414C-4EBE-9473-FADD1A3ABBAF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1743,7 @@
         <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -1734,13 +1752,13 @@
         <v>232812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1773,13 @@
         <v>290719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
@@ -1770,13 +1788,13 @@
         <v>346090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>580</v>
@@ -1785,13 +1803,13 @@
         <v>636809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B898B03-1057-4125-A3F5-00651CA7098E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907EF655-1614-4585-882A-F6488C7A5678}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1883,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1990,13 +2008,13 @@
         <v>44039</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -2005,13 +2023,13 @@
         <v>52967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -2020,13 +2038,13 @@
         <v>97006</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2059,13 @@
         <v>135009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -2056,13 +2074,13 @@
         <v>219181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>335</v>
@@ -2071,13 +2089,13 @@
         <v>354190</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2163,13 @@
         <v>21574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2160,13 +2178,13 @@
         <v>23447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2175,13 +2193,13 @@
         <v>45020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2214,13 @@
         <v>139850</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -2211,13 +2229,13 @@
         <v>139416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>255</v>
@@ -2226,13 +2244,13 @@
         <v>279267</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2318,13 @@
         <v>6766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2315,13 +2333,13 @@
         <v>996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2330,13 +2348,13 @@
         <v>7762</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2369,13 @@
         <v>39424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -2366,10 +2384,10 @@
         <v>33331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
@@ -2381,13 +2399,13 @@
         <v>72755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2473,13 @@
         <v>72379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -2470,13 +2488,13 @@
         <v>77410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -2485,13 +2503,13 @@
         <v>149789</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2524,13 @@
         <v>314284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>344</v>
@@ -2521,13 +2539,13 @@
         <v>391928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -2536,13 +2554,13 @@
         <v>706211</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA812495-054C-448F-99F0-80DF8B0F4028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FBEB14-3110-4550-9B51-612CDC5B7D74}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2634,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2741,13 +2759,13 @@
         <v>8157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2756,13 +2774,13 @@
         <v>35053</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -2771,13 +2789,13 @@
         <v>43210</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2810,13 @@
         <v>135347</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>431</v>
@@ -2807,13 +2825,13 @@
         <v>236731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>623</v>
@@ -2822,13 +2840,13 @@
         <v>372079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2914,13 @@
         <v>24873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2911,13 +2929,13 @@
         <v>13364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -2926,13 +2944,13 @@
         <v>38237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2965,13 @@
         <v>245933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -2962,13 +2980,13 @@
         <v>344456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>711</v>
@@ -2977,13 +2995,13 @@
         <v>590389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3069,13 @@
         <v>4143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3066,13 +3084,13 @@
         <v>3928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3081,13 +3099,13 @@
         <v>8070</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3120,13 @@
         <v>74360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -3117,13 +3135,13 @@
         <v>81243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -3132,13 +3150,13 @@
         <v>155604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3224,13 @@
         <v>37173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3221,13 +3239,13 @@
         <v>52344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3236,13 +3254,13 @@
         <v>89517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3275,13 @@
         <v>455640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -3272,13 +3290,13 @@
         <v>662432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1562</v>
@@ -3287,13 +3305,13 @@
         <v>1118072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3367,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
